--- a/Shot_plan_CH.xlsx
+++ b/Shot_plan_CH.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sara/Documents/HEDP/EXPERIMENTS/D2_IAW-25A /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sara/Documents/HEDP/EXPERIMENTS/D2_IAW-25A /SHOT DAY FILES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0AA899-1676-8448-A8E1-799F2C212393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9B6B05-5AE2-BE49-B8A4-753BA88DE6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4360" yWindow="5220" windowWidth="26440" windowHeight="15440" activeTab="6" xr2:uid="{2758EBBC-AAED-284A-ADA9-B7525EDF5655}"/>
   </bookViews>
@@ -668,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -771,7 +771,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -786,10 +785,10 @@
     </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -797,563 +796,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="98">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Century Gothic"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <name val="Century Gothic"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <name val="Century Gothic"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Century Gothic"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Century Gothic"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Century Gothic"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Century Gothic"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Century Gothic"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <name val="Century Gothic"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1692,6 +1134,563 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <name val="Century Gothic"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Century Gothic"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <name val="Century Gothic"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <name val="Century Gothic"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Century Gothic"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Century Gothic"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Century Gothic"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Century Gothic"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Century Gothic"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3816,7 +3815,7 @@
                   <c:v>4140</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4500</c:v>
+                  <c:v>5400</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>720</c:v>
@@ -3849,7 +3848,7 @@
                   <c:v>400.35896414699857</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>435.33354508071278</c:v>
+                  <c:v>523.21794035390235</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>66.200372521548275</c:v>
@@ -4928,11 +4927,11 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{591944D0-846C-D74D-A913-03850139ADAC}" name="Table8" displayName="Table8" ref="F1:G5" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{591944D0-846C-D74D-A913-03850139ADAC}" name="Table8" displayName="Table8" ref="F1:G5" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="F1:G5" xr:uid="{591944D0-846C-D74D-A913-03850139ADAC}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CBE7DC73-FF7D-6747-ABCE-51D741C4D1C5}" name="Group name" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{DA5A79EC-B0FE-EC4E-858A-5514F439B465}" name="Beams" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{CBE7DC73-FF7D-6747-ABCE-51D741C4D1C5}" name="Group name" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{DA5A79EC-B0FE-EC4E-858A-5514F439B465}" name="Beams" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5007,7 +5006,13 @@
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8BB131BD-884C-4D4B-9CE4-0B02EB0117CC}" name="Table3710" displayName="Table3710" ref="A1:L33" totalsRowShown="0" headerRowDxfId="48" headerRowBorderDxfId="47" tableBorderDxfId="46" totalsRowBorderDxfId="45">
-  <autoFilter ref="A1:L33" xr:uid="{8BB131BD-884C-4D4B-9CE4-0B02EB0117CC}"/>
+  <autoFilter ref="A1:L33" xr:uid="{8BB131BD-884C-4D4B-9CE4-0B02EB0117CC}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Deuterium"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{A2307CF6-03CF-E245-8637-F8B36E2EE0B2}" name="RID" dataDxfId="44"/>
     <tableColumn id="2" xr3:uid="{8FCC9BAE-92FC-1B48-99B3-3DA0DF768605}" name="Shot no" dataDxfId="43"/>
@@ -5029,23 +5034,23 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{2CB50BED-6204-DD45-8EFC-9A0B7FA0168F}" name="Table3711" displayName="Table3711" ref="A2:L10" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{2CB50BED-6204-DD45-8EFC-9A0B7FA0168F}" name="Table3711" displayName="Table3711" ref="A2:L10" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" totalsRowBorderDxfId="28">
   <autoFilter ref="A2:L10" xr:uid="{2CB50BED-6204-DD45-8EFC-9A0B7FA0168F}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{74FE5601-720A-7340-9EB9-143F3EB38B9F}" name="RID" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{163FF9AD-2A48-A24E-BF3E-94F0726381A7}" name="Shot no" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{581F80B2-1D06-CD4C-BB1E-82A7851483DD}" name="P goal (Gpa)" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{0213E13A-C612-D143-B597-20C9CF60AB2C}" name="SSD Pulse shape" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{205EEAFB-0C55-614C-8272-807FA840729C}" name="SSD Energy (J)" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{74FE5601-720A-7340-9EB9-143F3EB38B9F}" name="RID" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{163FF9AD-2A48-A24E-BF3E-94F0726381A7}" name="Shot no" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{581F80B2-1D06-CD4C-BB1E-82A7851483DD}" name="P goal (Gpa)" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{0213E13A-C612-D143-B597-20C9CF60AB2C}" name="SSD Pulse shape" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{205EEAFB-0C55-614C-8272-807FA840729C}" name="SSD Energy (J)" dataDxfId="23">
       <calculatedColumnFormula>72*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E123025F-3C53-2F49-B998-D8F777CD58C4}" name="LEG2 Pulse shape" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{09F90B31-CB12-B449-A18D-BD1ECDFF7FA0}" name="LEG2 Energy (J/Beam)" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{033EE115-B24B-5F42-8B9E-8B63618C1FEE}" name="Beam 24 delay (ns)" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{AFFF7D62-C70E-6F44-9944-12F5CC5C3893}" name="Beam 59 delay (ns)" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{54E5F1DF-A56C-9043-8D06-F19A5F0FB5B4}" name="D_app D2 (km/s)" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{047D450E-9081-614C-9EB8-B3C8A9FFE5C6}" name="Etalons" dataDxfId="0"/>
-    <tableColumn id="12" xr3:uid="{0F46805D-62C7-D74D-B4F3-3116AF34D264}" name="Total Energy (J)" dataDxfId="13">
+    <tableColumn id="5" xr3:uid="{E123025F-3C53-2F49-B998-D8F777CD58C4}" name="LEG2 Pulse shape" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{09F90B31-CB12-B449-A18D-BD1ECDFF7FA0}" name="LEG2 Energy (J/Beam)" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{033EE115-B24B-5F42-8B9E-8B63618C1FEE}" name="Beam 24 delay (ns)" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{AFFF7D62-C70E-6F44-9944-12F5CC5C3893}" name="Beam 59 delay (ns)" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{54E5F1DF-A56C-9043-8D06-F19A5F0FB5B4}" name="D_app D2 (km/s)" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{047D450E-9081-614C-9EB8-B3C8A9FFE5C6}" name="Etalons" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{0F46805D-62C7-D74D-B4F3-3116AF34D264}" name="Total Energy (J)" dataDxfId="16">
       <calculatedColumnFormula>Table3711[[#This Row],[SSD Energy (J)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5054,23 +5059,23 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{045C950E-D0C2-3C41-9EEE-59614D193F7E}" name="Table1" displayName="Table1" ref="B1:B6" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{045C950E-D0C2-3C41-9EEE-59614D193F7E}" name="Table1" displayName="Table1" ref="B1:B6" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="B1:B6" xr:uid="{045C950E-D0C2-3C41-9EEE-59614D193F7E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B6">
     <sortCondition ref="B1:B6"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{7EBC8C11-977C-C144-ABF8-2F266114559A}" name="Pulse shapes" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{7EBC8C11-977C-C144-ABF8-2F266114559A}" name="Pulse shapes" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{71818CC8-7680-1746-97BE-87A49C5EFB17}" name="Table7" displayName="Table7" ref="D1:D4" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{71818CC8-7680-1746-97BE-87A49C5EFB17}" name="Table7" displayName="Table7" ref="D1:D4" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="D1:D4" xr:uid="{71818CC8-7680-1746-97BE-87A49C5EFB17}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{FE794C57-7349-C54C-A89D-273D5484C686}" name="Priority" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{FE794C57-7349-C54C-A89D-273D5484C686}" name="Priority" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8748,7 +8753,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G2" sqref="G2:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8840,7 +8845,7 @@
         <v>36.402273697369473</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>98973</v>
       </c>
@@ -8879,7 +8884,7 @@
         <v>36.915202857093163</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>98973</v>
       </c>
@@ -8918,7 +8923,7 @@
         <v>46.603537909821952</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>98973</v>
       </c>
@@ -8996,7 +9001,7 @@
         <v>25.190820625955187</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="42">
         <v>100418</v>
       </c>
@@ -9035,7 +9040,7 @@
         <v>27.651272075509198</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="42">
         <v>100418</v>
       </c>
@@ -9074,7 +9079,7 @@
         <v>33.865544245169026</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="42">
         <v>100418</v>
       </c>
@@ -9152,7 +9157,7 @@
         <v>44.584249023954783</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="42">
         <v>100419</v>
       </c>
@@ -9191,7 +9196,7 @@
         <v>43.32934983305865</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="42">
         <v>100419</v>
       </c>
@@ -9230,7 +9235,7 @@
         <v>55.789919399879977</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="42">
         <v>100419</v>
       </c>
@@ -9308,7 +9313,7 @@
         <v>49.140392718933789</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>100420</v>
       </c>
@@ -9347,7 +9352,7 @@
         <v>46.851594163376504</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>100420</v>
       </c>
@@ -9386,7 +9391,7 @@
         <v>60.844136725265059</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>100420</v>
       </c>
@@ -9464,7 +9469,7 @@
         <v>57.155388957221433</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>100421</v>
       </c>
@@ -9503,7 +9508,7 @@
         <v>53.054261820010801</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>100421</v>
       </c>
@@ -9542,7 +9547,7 @@
         <v>69.825617512942571</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>100421</v>
       </c>
@@ -9620,7 +9625,7 @@
         <v>62.260178228035592</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>100422</v>
       </c>
@@ -9659,7 +9664,7 @@
         <v>56.960530629432604</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>100422</v>
       </c>
@@ -9698,7 +9703,7 @@
         <v>75.460386828405674</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>100422</v>
       </c>
@@ -9757,26 +9762,26 @@
         <v>0.17299999999999999</v>
       </c>
       <c r="G26" s="3">
-        <v>435.33354508071278</v>
+        <v>523.21794035390235</v>
       </c>
       <c r="H26" s="3">
-        <v>0.75160877717765251</v>
+        <v>0.75017021106884008</v>
       </c>
       <c r="I26" s="3">
-        <v>43.848769753950791</v>
+        <v>48.057611522304462</v>
       </c>
       <c r="J26" s="3">
-        <v>57.057859086817373</v>
+        <v>62.570726300260063</v>
       </c>
       <c r="K26" s="3">
-        <v>5.5032676323662688</v>
+        <v>5.0389953011791144</v>
       </c>
       <c r="L26" s="43">
         <f>Table3710[[#This Row],[D (km/s)]]*Table3710[[#This Row],[n]]</f>
-        <v>64.931843640798164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <v>71.205486529695946</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>100423</v>
       </c>
@@ -9796,26 +9801,26 @@
         <v>2.65</v>
       </c>
       <c r="G27" s="3">
-        <v>2705.4008565218519</v>
+        <v>3214.7328125865229</v>
       </c>
       <c r="H27" s="3">
-        <v>8.8467800240369865</v>
+        <v>9.1652530772581216</v>
       </c>
       <c r="I27" s="3">
-        <v>26.74134826965393</v>
+        <v>29.365873174634931</v>
       </c>
       <c r="J27" s="3">
-        <v>38.177057241039542</v>
+        <v>41.310085163025121</v>
       </c>
       <c r="K27" s="3">
-        <v>1.998053745955169</v>
+        <v>1.842612394574292</v>
       </c>
       <c r="L27" s="43">
         <f>Table3710[[#This Row],[D (km/s)]]*Table3710[[#This Row],[n]]</f>
-        <v>59.059907551888166</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+        <v>63.906701747199861</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>100423</v>
       </c>
@@ -9835,26 +9840,26 @@
         <v>1.04</v>
       </c>
       <c r="G28" s="3">
-        <v>1799.6945816304681</v>
+        <v>2146.5368826957629</v>
       </c>
       <c r="H28" s="3">
-        <v>3.5976539231958999</v>
+        <v>3.6382302681383392</v>
       </c>
       <c r="I28" s="3">
-        <v>34.838967793558709</v>
+        <v>38.135627125425088</v>
       </c>
       <c r="J28" s="3">
-        <v>49.197635527105412</v>
+        <v>53.606587717543512</v>
       </c>
       <c r="K28" s="3">
-        <v>0.609785402867004</v>
+        <v>0.55963271077935217</v>
       </c>
       <c r="L28" s="43">
         <f>Table3710[[#This Row],[D (km/s)]]*Table3710[[#This Row],[n]]</f>
-        <v>78.499747247049385</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+        <v>85.53467136211242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>100423</v>
       </c>
@@ -9874,23 +9879,23 @@
         <v>2.65</v>
       </c>
       <c r="G29" s="3">
-        <v>2705.4008565218519</v>
+        <v>3214.7328125865229</v>
       </c>
       <c r="H29" s="3">
-        <v>8.8467800240369865</v>
+        <v>9.1652530772581216</v>
       </c>
       <c r="I29" s="3">
-        <v>26.74134826965393</v>
+        <v>29.365873174634931</v>
       </c>
       <c r="J29" s="3">
-        <v>38.177057241039542</v>
+        <v>41.310085163025121</v>
       </c>
       <c r="K29" s="3">
-        <v>7.2368022104388112</v>
+        <v>6.6840451636118008</v>
       </c>
       <c r="L29" s="43">
         <f>Table3710[[#This Row],[D (km/s)]]*Table3710[[#This Row],[n]]</f>
-        <v>59.059907551888166</v>
+        <v>63.906701747199861</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -9932,7 +9937,7 @@
         <v>25.190820625955187</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>100424</v>
       </c>
@@ -9971,7 +9976,7 @@
         <v>27.651272075509198</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>100424</v>
       </c>
@@ -10010,7 +10015,7 @@
         <v>33.865544245169026</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>100424</v>
       </c>
@@ -10062,8 +10067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA62450-B6D5-704C-BCE2-D3F7863DF860}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="106" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:G24"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="207" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10081,41 +10086,41 @@
       <c r="A1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
     </row>
     <row r="2" spans="1:12" s="51" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="53" t="s">
+      <c r="K2" s="52" t="s">
         <v>79</v>
       </c>
       <c r="L2" s="44" t="s">
@@ -10163,13 +10168,13 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="57">
+      <c r="A4" s="56">
         <v>100418</v>
       </c>
       <c r="B4" s="48">
         <v>2</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="3">
         <v>66.200372521548275</v>
       </c>
       <c r="D4" s="48" t="s">
@@ -10283,13 +10288,13 @@
       </c>
     </row>
     <row r="7" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57">
+      <c r="A7" s="56">
         <v>100421</v>
       </c>
       <c r="B7" s="48">
         <v>5</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="3">
         <v>337.60454665323869</v>
       </c>
       <c r="D7" s="48" t="s">
@@ -10371,7 +10376,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="3">
-        <v>435.33354508071278</v>
+        <v>523.21794035390235</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
@@ -10400,18 +10405,18 @@
         <v>81</v>
       </c>
       <c r="L9" s="1">
-        <f>Table3711[[#This Row],[SSD Energy (J)]]</f>
-        <v>4500</v>
+        <f>Table3711[[#This Row],[SSD Energy (J)]] +Table3711[[#This Row],[LEG2 Energy (J/Beam)]]*2</f>
+        <v>5400</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="57">
+      <c r="A10" s="56">
         <v>100424</v>
       </c>
       <c r="B10" s="48">
         <v>8</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="3">
         <v>66.200372521548275</v>
       </c>
       <c r="D10" s="48" t="s">
@@ -10450,7 +10455,6 @@
       <c r="B13" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="52"/>
     </row>
     <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="46" t="s">
@@ -10500,26 +10504,26 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="60" t="s">
+    <row r="23" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="60" t="s">
+      <c r="D23" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="60" t="s">
+      <c r="E23" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="60" t="s">
+      <c r="F23" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="G23" s="60" t="s">
+      <c r="G23" s="58" t="s">
         <v>92</v>
       </c>
     </row>
@@ -10533,7 +10537,7 @@
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="58"/>
+      <c r="A25" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">
